--- a/tweet links.xlsx
+++ b/tweet links.xlsx
@@ -13,20 +13,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>1483612300875808772</t>
+    <t>https://twitter.com/coinbase/status/1484609415982448643</t>
   </si>
   <si>
-    <t>1483914230885543936</t>
+    <t>https://twitter.com/DevonMrBeastYT/status/1484653157502402560</t>
   </si>
   <si>
-    <t>1483986428262371328</t>
+    <t>https://twitter.com/coinbureau/status/1484653703609167877</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -34,11 +34,14 @@
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -63,6 +66,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -281,7 +287,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.0"/>
+    <col customWidth="1" min="1" max="1" width="58.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -295,11 +301,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink r:id="rId2" ref="A2"/>
+    <hyperlink r:id="rId3" ref="A3"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>